--- a/lifelib/projects/nestedlife/model/Input/input.xlsx
+++ b/lifelib/projects/nestedlife/model/Input/input.xlsx
@@ -360,6 +360,74 @@
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -660,7 +728,7 @@
       <selection activeCell="B7" sqref="B7:O307"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
     <col width="20.7265625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="10.36328125" customWidth="1" style="1" min="2" max="2"/>
@@ -14772,7 +14840,7 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.08984375" defaultRowHeight="12.5" outlineLevelCol="0"/>
   <cols>
     <col width="6.7265625" customWidth="1" style="4" min="1" max="1"/>
     <col width="9.6328125" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
@@ -19621,7 +19689,7 @@
       <selection activeCell="B7" sqref="B7:V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
     <col width="11.36328125" customWidth="1" style="1" min="1" max="1"/>
     <col width="10.36328125" customWidth="1" style="1" min="2" max="2"/>
@@ -20324,7 +20392,7 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="12.5" outlineLevelCol="0"/>
   <cols>
     <col width="5.6328125" customWidth="1" style="18" min="1" max="1"/>
     <col width="5" bestFit="1" customWidth="1" style="18" min="2" max="2"/>
@@ -20441,7 +20509,7 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
     <col width="10.7265625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="11.7265625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -20927,7 +20995,7 @@
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="8" customWidth="1" style="1" min="2" max="2"/>
@@ -21607,7 +21675,7 @@
       <selection activeCell="F1477" sqref="F1477"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
     <col width="7.7265625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="8.1796875" customWidth="1" style="1" min="2" max="2"/>
